--- a/Access_Data_Export/lawyers.xlsx
+++ b/Access_Data_Export/lawyers.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claude\Litigation_Database_Ver2\Litigation_Database_Ver2\Access_Data_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E0F887-CDEC-4508-894C-484F2F0128AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C742189F-5D0E-48D5-BF84-DF630FDB6773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lawyers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lawyers!$A$1:$A$24</definedName>
     <definedName name="lawyers">lawyers!$B$1:$F$24</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>AttTrack</t>
   </si>
@@ -254,6 +255,9 @@
   </si>
   <si>
     <t>Lawyer_ID</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -692,7 +696,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +739,10 @@
       <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" t="b">
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
@@ -755,7 +762,7 @@
       <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="b">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
@@ -775,7 +782,7 @@
       <c r="E4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="b">
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -795,7 +802,7 @@
       <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="b">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
@@ -815,7 +822,7 @@
       <c r="E6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="b">
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
@@ -835,7 +842,7 @@
       <c r="E7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="b">
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
@@ -855,7 +862,7 @@
       <c r="E8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="b">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
@@ -875,7 +882,7 @@
       <c r="E9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="b">
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
@@ -895,7 +902,7 @@
       <c r="E10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="b">
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -915,7 +922,7 @@
       <c r="E11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F11" t="b">
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -935,7 +942,7 @@
       <c r="E12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="b">
+      <c r="F12">
         <v>0</v>
       </c>
     </row>
@@ -955,7 +962,7 @@
       <c r="E13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F13" t="b">
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -975,7 +982,7 @@
       <c r="E14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F14" t="b">
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
@@ -995,7 +1002,7 @@
       <c r="E15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F15" t="b">
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
@@ -1015,7 +1022,7 @@
       <c r="E16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F16" t="b">
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
@@ -1035,7 +1042,7 @@
       <c r="E17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F17" t="b">
+      <c r="F17">
         <v>0</v>
       </c>
     </row>
@@ -1055,7 +1062,7 @@
       <c r="E18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F18" t="b">
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
@@ -1075,7 +1082,7 @@
       <c r="E19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F19" t="b">
+      <c r="F19">
         <v>1</v>
       </c>
     </row>
@@ -1095,7 +1102,7 @@
       <c r="E20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F20" t="b">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -1115,7 +1122,7 @@
       <c r="E21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F21" t="b">
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -1135,7 +1142,7 @@
       <c r="E22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F22" t="b">
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
@@ -1155,7 +1162,7 @@
       <c r="E23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F23" t="b">
+      <c r="F23">
         <v>1</v>
       </c>
     </row>
@@ -1175,11 +1182,12 @@
       <c r="E24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F24" t="b">
+      <c r="F24">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A24" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{02F4DC7D-750A-4A10-B476-8B70F1C53CE7}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{626E989A-AE17-4041-AE89-94D9D87131A4}"/>

--- a/Access_Data_Export/lawyers.xlsx
+++ b/Access_Data_Export/lawyers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claude\Litigation_Database_Ver2\Litigation_Database_Ver2\Access_Data_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C742189F-5D0E-48D5-BF84-DF630FDB6773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E58458-628B-43D7-88C9-10F824D221C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lawyers" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lawyers!$A$1:$A$24</definedName>
     <definedName name="lawyers">lawyers!$B$1:$F$24</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -372,8 +383,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -696,7 +707,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +742,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -748,7 +759,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -759,7 +770,7 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F3">
@@ -768,7 +779,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -779,7 +790,7 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F4">
@@ -787,8 +798,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>5</v>
+      <c r="A5" s="2">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -799,7 +810,7 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F5">
@@ -807,8 +818,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>10</v>
+      <c r="A6" s="3">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -819,7 +830,7 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F6">
@@ -839,7 +850,7 @@
       <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F7">
@@ -848,7 +859,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -859,7 +870,7 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F8">
@@ -867,8 +878,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>2</v>
+      <c r="A9" s="2">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -879,7 +890,7 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F9">
@@ -887,8 +898,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>1</v>
+      <c r="A10" s="3">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -899,7 +910,7 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F10">
@@ -907,8 +918,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>11</v>
+      <c r="A11" s="2">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -919,7 +930,7 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F11">
@@ -927,8 +938,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>21</v>
+      <c r="A12" s="3">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -939,7 +950,7 @@
       <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F12">
@@ -947,8 +958,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>19</v>
+      <c r="A13" s="2">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -959,7 +970,7 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F13">
@@ -967,8 +978,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>17</v>
+      <c r="A14" s="3">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -979,7 +990,7 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F14">
@@ -988,7 +999,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -999,7 +1010,7 @@
       <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F15">
@@ -1008,7 +1019,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1019,7 +1030,7 @@
       <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F16">
@@ -1027,8 +1038,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>20</v>
+      <c r="A17" s="2">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1039,7 +1050,7 @@
       <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F17">
@@ -1048,7 +1059,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1059,7 +1070,7 @@
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F18">
@@ -1068,7 +1079,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -1079,7 +1090,7 @@
       <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F19">
@@ -1087,8 +1098,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>12</v>
+      <c r="A20" s="3">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -1099,7 +1110,7 @@
       <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F20">
@@ -1108,7 +1119,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -1119,7 +1130,7 @@
       <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F21">
@@ -1128,7 +1139,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -1139,7 +1150,7 @@
       <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F22">
@@ -1147,8 +1158,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>14</v>
+      <c r="A23" s="2">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -1159,7 +1170,7 @@
       <c r="D23" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F23">
@@ -1167,8 +1178,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>7</v>
+      <c r="A24" s="5">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -1179,7 +1190,7 @@
       <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F24">
@@ -1187,7 +1198,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A24" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A24" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A24">
+      <sortCondition ref="A1:A24"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{02F4DC7D-750A-4A10-B476-8B70F1C53CE7}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{626E989A-AE17-4041-AE89-94D9D87131A4}"/>
